--- a/Output/Y2021/Different Net (file120-Bank).xlsx
+++ b/Output/Y2021/Different Net (file120-Bank).xlsx
@@ -401,15 +401,15 @@
         <v>5290562</v>
       </c>
       <c r="E2" s="0">
+        <v>100520677</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>DOAN TO CHAN</t>
+        </is>
+      </c>
+      <c r="G2" s="0">
         <v>81755069</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>DOAN TO CHAN</t>
-        </is>
-      </c>
-      <c r="G2" s="0">
-        <v>100520677</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -435,15 +435,15 @@
         <v>8281272</v>
       </c>
       <c r="E3" s="0">
+        <v>157344173</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>DANG NU</t>
+        </is>
+      </c>
+      <c r="G3" s="0">
         <v>166350955</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>DANG NU</t>
-        </is>
-      </c>
-      <c r="G3" s="0">
-        <v>157344173</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -469,15 +469,15 @@
         <v>8050205</v>
       </c>
       <c r="E4" s="0">
+        <v>152953897</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>DONG TUAN DAT</t>
+        </is>
+      </c>
+      <c r="G4" s="0">
         <v>159419107</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>DONG TUAN DAT</t>
-        </is>
-      </c>
-      <c r="G4" s="0">
-        <v>152953897</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -503,15 +503,15 @@
         <v>2244047</v>
       </c>
       <c r="E5" s="0">
+        <v>42636888</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>HUYNH QUOC VINH</t>
+        </is>
+      </c>
+      <c r="G5" s="0">
         <v>42132888</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>HUYNH QUOC VINH</t>
-        </is>
-      </c>
-      <c r="G5" s="0">
-        <v>42636888</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -537,15 +537,15 @@
         <v>7386509</v>
       </c>
       <c r="E6" s="0">
+        <v>140343661</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NGUYEN THI DIEP</t>
+        </is>
+      </c>
+      <c r="G6" s="0">
         <v>114535690</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NGUYEN THI DIEP</t>
-        </is>
-      </c>
-      <c r="G6" s="0">
-        <v>140343661</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -571,15 +571,15 @@
         <v>5621598</v>
       </c>
       <c r="E7" s="0">
+        <v>106810360</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>DONG THUY DAN</t>
+        </is>
+      </c>
+      <c r="G7" s="0">
         <v>128144672</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>DONG THUY DAN</t>
-        </is>
-      </c>
-      <c r="G7" s="0">
-        <v>106810360</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -605,15 +605,15 @@
         <v>5025128</v>
       </c>
       <c r="E8" s="0">
+        <v>95477432</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NGUYEN TRAN THI</t>
+        </is>
+      </c>
+      <c r="G8" s="0">
         <v>78148054</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NGUYEN TRAN THI</t>
-        </is>
-      </c>
-      <c r="G8" s="0">
-        <v>95477432</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -639,15 +639,15 @@
         <v>7165006</v>
       </c>
       <c r="E9" s="0">
+        <v>136135108</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>TRAN PHAM BINH</t>
+        </is>
+      </c>
+      <c r="G9" s="0">
         <v>153724520</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>TRAN PHAM BINH</t>
-        </is>
-      </c>
-      <c r="G9" s="0">
-        <v>136135108</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -673,15 +673,15 @@
         <v>6073688</v>
       </c>
       <c r="E10" s="0">
+        <v>115400066</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>TRAN THI QUYNH</t>
+        </is>
+      </c>
+      <c r="G10" s="0">
         <v>121350218</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>TRAN THI QUYNH</t>
-        </is>
-      </c>
-      <c r="G10" s="0">
-        <v>115400066</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -707,15 +707,15 @@
         <v>5410646</v>
       </c>
       <c r="E11" s="0">
+        <v>102802280</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>TRAN CO DANH</t>
+        </is>
+      </c>
+      <c r="G11" s="0">
         <v>154770857</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>TRAN CO DANH</t>
-        </is>
-      </c>
-      <c r="G11" s="0">
-        <v>102802280</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -741,15 +741,15 @@
         <v>6329003</v>
       </c>
       <c r="E12" s="0">
+        <v>120251053</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>LE TRUNG TIN &amp;</t>
+        </is>
+      </c>
+      <c r="G12" s="0">
         <v>139938935</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>LE TRUNG TIN &amp;</t>
-        </is>
-      </c>
-      <c r="G12" s="0">
-        <v>120251053</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -775,15 +775,15 @@
         <v>5880170</v>
       </c>
       <c r="E13" s="0">
+        <v>111723239</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NGUYEN THI HAO</t>
+        </is>
+      </c>
+      <c r="G13" s="0">
         <v>115974732</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NGUYEN THI HAO</t>
-        </is>
-      </c>
-      <c r="G13" s="0">
-        <v>111723239</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -809,15 +809,15 @@
         <v>9579273</v>
       </c>
       <c r="E14" s="0">
+        <v>182006194</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>DANG THI HOANG</t>
+        </is>
+      </c>
+      <c r="G14" s="0">
         <v>200643588</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>DANG THI HOANG</t>
-        </is>
-      </c>
-      <c r="G14" s="0">
-        <v>182006194</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -843,15 +843,15 @@
         <v>6381159</v>
       </c>
       <c r="E15" s="0">
+        <v>121242020</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NGUYEN THI THAN</t>
+        </is>
+      </c>
+      <c r="G15" s="0">
         <v>130510344</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NGUYEN THI THAN</t>
-        </is>
-      </c>
-      <c r="G15" s="0">
-        <v>121242020</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -877,15 +877,15 @@
         <v>10877331</v>
       </c>
       <c r="E16" s="0">
+        <v>206669292</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>PHAM BAO THO &amp;</t>
+        </is>
+      </c>
+      <c r="G16" s="0">
         <v>203013805</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>PHAM BAO THO &amp;</t>
-        </is>
-      </c>
-      <c r="G16" s="0">
-        <v>206669292</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -911,15 +911,15 @@
         <v>5300993</v>
       </c>
       <c r="E17" s="0">
+        <v>100718861</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>VO THI PHI PHUO</t>
+        </is>
+      </c>
+      <c r="G17" s="0">
         <v>138369903</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>VO THI PHI PHUO</t>
-        </is>
-      </c>
-      <c r="G17" s="0">
-        <v>100718861</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -945,15 +945,15 @@
         <v>5811394</v>
       </c>
       <c r="E18" s="0">
+        <v>110416476</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>HUYNH LE HOANG</t>
+        </is>
+      </c>
+      <c r="G18" s="0">
         <v>118081923</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>HUYNH LE HOANG</t>
-        </is>
-      </c>
-      <c r="G18" s="0">
-        <v>110416476</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -979,15 +979,15 @@
         <v>5126776</v>
       </c>
       <c r="E19" s="0">
+        <v>97408734</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NGUYEN THI DIEM</t>
+        </is>
+      </c>
+      <c r="G19" s="0">
         <v>120953688</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NGUYEN THI DIEM</t>
-        </is>
-      </c>
-      <c r="G19" s="0">
-        <v>97408734</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1013,15 +1013,15 @@
         <v>5808403</v>
       </c>
       <c r="E20" s="0">
+        <v>110359657</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>TRAN VAN TRI &amp;</t>
+        </is>
+      </c>
+      <c r="G20" s="0">
         <v>112312778</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>TRAN VAN TRI &amp;</t>
-        </is>
-      </c>
-      <c r="G20" s="0">
-        <v>110359657</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1047,15 +1047,15 @@
         <v>5181172</v>
       </c>
       <c r="E21" s="0">
+        <v>98442264</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NGUYEN THI HUON</t>
+        </is>
+      </c>
+      <c r="G21" s="0">
         <v>99695756</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NGUYEN THI HUON</t>
-        </is>
-      </c>
-      <c r="G21" s="0">
-        <v>98442264</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1081,15 +1081,15 @@
         <v>5775981</v>
       </c>
       <c r="E22" s="0">
+        <v>109743637</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>DANG QUOC HUNG</t>
+        </is>
+      </c>
+      <c r="G22" s="0">
         <v>139103333</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>DANG QUOC HUNG</t>
-        </is>
-      </c>
-      <c r="G22" s="0">
-        <v>109743637</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1115,15 +1115,15 @@
         <v>8745939</v>
       </c>
       <c r="E23" s="0">
+        <v>166172839</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>DAO THUY HIEN &amp;</t>
+        </is>
+      </c>
+      <c r="G23" s="0">
         <v>178489337</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>DAO THUY HIEN &amp;</t>
-        </is>
-      </c>
-      <c r="G23" s="0">
-        <v>166172839</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1149,15 +1149,15 @@
         <v>5983997</v>
       </c>
       <c r="E24" s="0">
+        <v>113695939</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>TRINH THAI HUON</t>
+        </is>
+      </c>
+      <c r="G24" s="0">
         <v>128811571</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>TRINH THAI HUON</t>
-        </is>
-      </c>
-      <c r="G24" s="0">
-        <v>113695939</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1183,15 +1183,15 @@
         <v>5752007</v>
       </c>
       <c r="E25" s="0">
+        <v>109288135</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>DANG THI THUY H</t>
+        </is>
+      </c>
+      <c r="G25" s="0">
         <v>116276922</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>DANG THI THUY H</t>
-        </is>
-      </c>
-      <c r="G25" s="0">
-        <v>109288135</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
